--- a/data_processed/20250813/BTCUSDQMOMENT_20250813.xlsx
+++ b/data_processed/20250813/BTCUSDQMOMENT_20250813.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>10.00089311459868</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>-1.192999354913552</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.2207470719351086</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.1880581529379718</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.390434932787405</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1152,10 +1160,18 @@
       <c r="H19" t="n">
         <v>6.614736706765834</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>-1.412060735503798</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.2796308233294815</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.2152540228723466</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.045313495123622</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">

--- a/data_processed/20250813/BTCUSDQMOMENT_20250813.xlsx
+++ b/data_processed/20250813/BTCUSDQMOMENT_20250813.xlsx
@@ -1202,10 +1202,18 @@
       <c r="H20" t="n">
         <v>6.28830101052083</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>-1.417434297872755</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.2306493530254091</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.2501630079354575</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.346422858371362</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250813/BTCUSDQMOMENT_20250813.xlsx
+++ b/data_processed/20250813/BTCUSDQMOMENT_20250813.xlsx
@@ -552,19 +552,19 @@
         <v>0.1205479452054795</v>
       </c>
       <c r="D3" t="n">
-        <v>124173.1259952829</v>
+        <v>124178.1998038432</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02727383084977963</v>
+        <v>0.02748126053704688</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1842394682242755</v>
+        <v>0.1834936993069084</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.6501059021040058</v>
+        <v>-0.6204895358439093</v>
       </c>
       <c r="H3" t="n">
-        <v>9.689265181438897</v>
+        <v>9.471443401656614</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -620,19 +620,19 @@
         <v>0.2931506849315069</v>
       </c>
       <c r="D5" t="n">
-        <v>125696.5400109054</v>
+        <v>125918.4996449818</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.008189662824075013</v>
+        <v>0.005433370494172475</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3285873416832969</v>
+        <v>0.2194350031705524</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.342552171367798</v>
+        <v>-0.7010986018052038</v>
       </c>
       <c r="H5" t="n">
-        <v>84.35620699271806</v>
+        <v>8.383799501217444</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -654,19 +654,19 @@
         <v>0.3698630136986301</v>
       </c>
       <c r="D6" t="n">
-        <v>126360.4977112326</v>
+        <v>126359.6383706355</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.009582155088764369</v>
+        <v>-0.009663359226640628</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2548989272557758</v>
+        <v>0.2555379863949271</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.194922171496425</v>
+        <v>-1.222310607217036</v>
       </c>
       <c r="H6" t="n">
-        <v>10.78940690996732</v>
+        <v>11.11734655883518</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -756,19 +756,19 @@
         <v>0.8684931506849315</v>
       </c>
       <c r="D9" t="n">
-        <v>129645.1295322321</v>
+        <v>129636.1709660843</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.06965847728059078</v>
+        <v>-0.07040383814255735</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3607113135971327</v>
+        <v>0.3657060939354542</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.762202352536489</v>
+        <v>-1.851251768435398</v>
       </c>
       <c r="H9" t="n">
-        <v>11.06466513966487</v>
+        <v>11.87399375507887</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -790,19 +790,19 @@
         <v>1.117808219178082</v>
       </c>
       <c r="D10" t="n">
-        <v>131169.4668304103</v>
+        <v>131128.8835390481</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.08963193056019768</v>
+        <v>-0.0940073360070954</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3757598467761581</v>
+        <v>0.4008313968713341</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.504992444513988</v>
+        <v>-1.802891082623549</v>
       </c>
       <c r="H10" t="n">
-        <v>7.712007510316734</v>
+        <v>9.838719582597273</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -824,19 +824,19 @@
         <v>1.364383561643836</v>
       </c>
       <c r="D11" t="n">
-        <v>133329.422620675</v>
+        <v>133308.7910640123</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1584023338326357</v>
+        <v>-0.1681830936976825</v>
       </c>
       <c r="F11" t="n">
-        <v>0.642273323326724</v>
+        <v>0.7175581915692382</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.256739226161773</v>
+        <v>-2.643298237415924</v>
       </c>
       <c r="H11" t="n">
-        <v>9.950877607350247</v>
+        <v>13.19983396292374</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -900,19 +900,19 @@
         <v>0.01643835616438356</v>
       </c>
       <c r="D13" t="n">
-        <v>123426.7160476579</v>
+        <v>123419.2413078245</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1008095964810563</v>
+        <v>0.1004679077765962</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1628015127631224</v>
+        <v>0.1615421857277089</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1864705234018758</v>
+        <v>-0.2592978026256869</v>
       </c>
       <c r="H13" t="n">
-        <v>7.613600035814675</v>
+        <v>7.053690629184262</v>
       </c>
       <c r="I13" t="n">
         <v>-0.7389651258046795</v>
@@ -942,19 +942,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D14" t="n">
-        <v>123433.0695745541</v>
+        <v>123462.6316935806</v>
       </c>
       <c r="E14" t="n">
-        <v>0.09095433959940946</v>
+        <v>0.09346904324945446</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1811409201040943</v>
+        <v>0.1672319128154472</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.9181872642175331</v>
+        <v>-0.06909789249204973</v>
       </c>
       <c r="H14" t="n">
-        <v>15.5304709970879</v>
+        <v>7.262250765205483</v>
       </c>
       <c r="I14" t="n">
         <v>-0.8316432563668504</v>

--- a/data_processed/20250813/BTCUSDQMOMENT_20250813.xlsx
+++ b/data_processed/20250813/BTCUSDQMOMENT_20250813.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>9.471443401656614</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-1.337248670033086</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2130411670264468</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.1122727997992599</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.238339903208516</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/data_processed/20250813/BTCUSDQMOMENT_20250813.xlsx
+++ b/data_processed/20250813/BTCUSDQMOMENT_20250813.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>9.809290619843214</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>-1.304125163509162</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4726427527162234</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.590360291702797</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.020339017269187</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
